--- a/BrowserCompatibility.xlsx
+++ b/BrowserCompatibility.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>FireFox</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngularJS 1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,6 +789,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
